--- a/信息工程学院毕业生档案转递信息.xlsx
+++ b/信息工程学院毕业生档案转递信息.xlsx
@@ -1,29 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Python\2025-08-14 Generator-for-college-student-file-transfer-form\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9619AF85-3537-4CFF-81B6-51F88E3BFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28245" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="WebWps_Form">Sheet1!$A$1:$S$3</definedName>
+    <definedName name="WebWps_Form">Sheet1!$A$1:$S$4</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>提交时间</t>
   </si>
@@ -103,15 +110,12 @@
     <t>签约单位接收</t>
   </si>
   <si>
-    <t>河北省邢台市</t>
+    <t/>
   </si>
   <si>
     <t>054101</t>
   </si>
   <si>
-    <t>河北省邢台市南和区南和区经济开发区建投邢台热电</t>
-  </si>
-  <si>
     <t>建投邢台热电有限责任公司</t>
   </si>
   <si>
@@ -121,9 +125,6 @@
     <t>03195529025</t>
   </si>
   <si>
-    <t>河北省邢台市南和区建投邢台热电</t>
-  </si>
-  <si>
     <t>有毕业证学位证</t>
   </si>
   <si>
@@ -161,13 +162,58 @@
   </si>
   <si>
     <t>北京市昌平区回龙观镇定福皇庄619号</t>
+  </si>
+  <si>
+    <t>20250815193521934784501</t>
+  </si>
+  <si>
+    <t>4分</t>
+  </si>
+  <si>
+    <t>李岳野</t>
+  </si>
+  <si>
+    <t>计Ｇ231</t>
+  </si>
+  <si>
+    <t>110228199903264917</t>
+  </si>
+  <si>
+    <t>15910425329</t>
+  </si>
+  <si>
+    <t>北京市密云区</t>
+  </si>
+  <si>
+    <t>100035</t>
+  </si>
+  <si>
+    <t>北京市⻄城区德内大街甲265 号</t>
+  </si>
+  <si>
+    <t>国 家 广 播 电 视 总 局 北 京 广 播 电 视 维 护 中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 胡晓静</t>
+  </si>
+  <si>
+    <t>13911882842</t>
+  </si>
+  <si>
+    <t>北京市⻄城区德内大街甲265</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,27 +222,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,37 +568,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -243,7 +890,7 @@
 <file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
 <woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookInfo cellCmpFml="0" dbFileVersion="0">
-    <open main="38" threadCnt="1"/>
+    <open main="32" threadCnt="1"/>
     <sheetInfos>
       <sheetInfo cellCmpFml="0" sheetStid="1">
         <open threadCnt="1"/>
@@ -505,212 +1152,279 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.109375"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.125"/>
+    <col min="5" max="5" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
-        <v>45883.916562500002</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>45883.9165625</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
         <v>2023320094</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G2">
         <v>2025</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1">
+        <v>45883.9201273148</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45883.920127314799</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E3">
         <v>2023320077</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G3">
         <v>2025</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1">
+        <v>45884.8162268518</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>2023320116</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>2025</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>33</v>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<independentViews xmlns="https://web.wps.cn/et/2018/main"/>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings fileId="442303321856" isFilterShared="1" woEtMtcEnabled="0" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0" supportDbFmlaDisp="0"/>
+  </woBookProps>
+</woProps>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,21 +1435,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <woSheetsProps>
-    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
-      <cellprotection/>
-      <appEtDbRelations/>
-    </woSheetProps>
-  </woSheetsProps>
-  <woBookProps>
-    <bookSettings fileId="442062499985" isFilterShared="1" woEtMtcEnabled="0" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0" supportDbFmlaDisp="0"/>
-  </woBookProps>
-</woProps>
+<independentViews xmlns="https://web.wps.cn/et/2018/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02B7E37-CEC0-4786-9FA4-411A3DC59612}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -753,7 +1457,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02B7E37-CEC0-4786-9FA4-411A3DC59612}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
